--- a/WBS 양식.xlsx
+++ b/WBS 양식.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="95">
   <si>
     <t>WBS</t>
   </si>
@@ -213,12 +213,6 @@
     <t>회원가입 페이지 구현</t>
   </si>
   <si>
-    <t>이메일인증 구현</t>
-  </si>
-  <si>
-    <t>휴대폰 본인인증 구현</t>
-  </si>
-  <si>
     <t>로그인</t>
   </si>
   <si>
@@ -304,12 +298,101 @@
     <t>남기준</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>RedisConfig</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedisService</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>휴대폰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>인증</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>구현</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">edis </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>연결</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -399,6 +482,21 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -972,7 +1070,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1277,14 +1375,26 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1298,22 +1408,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1539,8 +1654,8 @@
   <dimension ref="A1:AT1018"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1557,74 +1672,74 @@
   <sheetData>
     <row r="1" spans="1:46" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="108" t="s">
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="108" t="s">
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="108" t="s">
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="110"/>
-      <c r="AA1" s="108" t="s">
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="109"/>
-      <c r="AC1" s="109"/>
-      <c r="AD1" s="109"/>
-      <c r="AE1" s="109"/>
-      <c r="AF1" s="109"/>
-      <c r="AG1" s="110"/>
-      <c r="AH1" s="108" t="s">
+      <c r="AB1" s="111"/>
+      <c r="AC1" s="111"/>
+      <c r="AD1" s="111"/>
+      <c r="AE1" s="111"/>
+      <c r="AF1" s="111"/>
+      <c r="AG1" s="112"/>
+      <c r="AH1" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="AI1" s="109"/>
-      <c r="AJ1" s="109"/>
-      <c r="AK1" s="109"/>
-      <c r="AL1" s="109"/>
-      <c r="AM1" s="109"/>
-      <c r="AN1" s="110"/>
-      <c r="AO1" s="108" t="s">
+      <c r="AI1" s="111"/>
+      <c r="AJ1" s="111"/>
+      <c r="AK1" s="111"/>
+      <c r="AL1" s="111"/>
+      <c r="AM1" s="111"/>
+      <c r="AN1" s="112"/>
+      <c r="AO1" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="109"/>
-      <c r="AQ1" s="109"/>
-      <c r="AR1" s="109"/>
-      <c r="AS1" s="110"/>
+      <c r="AP1" s="111"/>
+      <c r="AQ1" s="111"/>
+      <c r="AR1" s="111"/>
+      <c r="AS1" s="112"/>
       <c r="AT1" s="2"/>
     </row>
     <row r="2" spans="1:46" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="107"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="122"/>
       <c r="H2" s="3">
         <v>30</v>
       </c>
@@ -1879,7 +1994,7 @@
     </row>
     <row r="4" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="124" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -1943,7 +2058,7 @@
     </row>
     <row r="5" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="117"/>
+      <c r="B5" s="125"/>
       <c r="C5" s="29" t="s">
         <v>21</v>
       </c>
@@ -2005,7 +2120,7 @@
     </row>
     <row r="6" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="117"/>
+      <c r="B6" s="125"/>
       <c r="C6" s="29" t="s">
         <v>21</v>
       </c>
@@ -2063,7 +2178,7 @@
     </row>
     <row r="7" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="117"/>
+      <c r="B7" s="125"/>
       <c r="C7" s="29" t="s">
         <v>21</v>
       </c>
@@ -2119,7 +2234,7 @@
     </row>
     <row r="8" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="117"/>
+      <c r="B8" s="125"/>
       <c r="C8" s="29" t="s">
         <v>21</v>
       </c>
@@ -2175,7 +2290,7 @@
     </row>
     <row r="9" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="117"/>
+      <c r="B9" s="125"/>
       <c r="C9" s="29" t="s">
         <v>21</v>
       </c>
@@ -2231,7 +2346,7 @@
     </row>
     <row r="10" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="117"/>
+      <c r="B10" s="125"/>
       <c r="C10" s="29" t="s">
         <v>21</v>
       </c>
@@ -2287,7 +2402,7 @@
     </row>
     <row r="11" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="117"/>
+      <c r="B11" s="125"/>
       <c r="C11" s="29" t="s">
         <v>21</v>
       </c>
@@ -2343,7 +2458,7 @@
     </row>
     <row r="12" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="117"/>
+      <c r="B12" s="125"/>
       <c r="C12" s="29" t="s">
         <v>49</v>
       </c>
@@ -2399,7 +2514,7 @@
     </row>
     <row r="13" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="117"/>
+      <c r="B13" s="125"/>
       <c r="C13" s="29" t="s">
         <v>51</v>
       </c>
@@ -2453,7 +2568,7 @@
     </row>
     <row r="14" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="117"/>
+      <c r="B14" s="125"/>
       <c r="C14" s="29" t="s">
         <v>52</v>
       </c>
@@ -2507,7 +2622,7 @@
     </row>
     <row r="15" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="117"/>
+      <c r="B15" s="125"/>
       <c r="C15" s="29" t="s">
         <v>21</v>
       </c>
@@ -2561,7 +2676,7 @@
     </row>
     <row r="16" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="117"/>
+      <c r="B16" s="125"/>
       <c r="C16" s="29" t="s">
         <v>21</v>
       </c>
@@ -2615,7 +2730,7 @@
     </row>
     <row r="17" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="117"/>
+      <c r="B17" s="125"/>
       <c r="C17" s="29" t="s">
         <v>21</v>
       </c>
@@ -2669,7 +2784,7 @@
     </row>
     <row r="18" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="117"/>
+      <c r="B18" s="125"/>
       <c r="C18" s="29" t="s">
         <v>21</v>
       </c>
@@ -2723,7 +2838,7 @@
     </row>
     <row r="19" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="117"/>
+      <c r="B19" s="125"/>
       <c r="C19" s="29" t="s">
         <v>49</v>
       </c>
@@ -2777,7 +2892,7 @@
     </row>
     <row r="20" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="117"/>
+      <c r="B20" s="125"/>
       <c r="C20" s="29" t="s">
         <v>51</v>
       </c>
@@ -2831,7 +2946,7 @@
     </row>
     <row r="21" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="117"/>
+      <c r="B21" s="125"/>
       <c r="C21" s="29" t="s">
         <v>49</v>
       </c>
@@ -2885,7 +3000,7 @@
     </row>
     <row r="22" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="117"/>
+      <c r="B22" s="125"/>
       <c r="C22" s="29" t="s">
         <v>51</v>
       </c>
@@ -2939,7 +3054,7 @@
     </row>
     <row r="23" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="117"/>
+      <c r="B23" s="125"/>
       <c r="C23" s="29" t="s">
         <v>49</v>
       </c>
@@ -2993,7 +3108,7 @@
     </row>
     <row r="24" spans="1:46" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="118"/>
+      <c r="B24" s="126"/>
       <c r="C24" s="50" t="s">
         <v>51</v>
       </c>
@@ -3047,20 +3162,20 @@
     </row>
     <row r="25" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="116" t="s">
+      <c r="B25" s="124" t="s">
         <v>60</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="111" t="s">
+      <c r="D25" s="113" t="s">
         <v>61</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="121" t="s">
-        <v>91</v>
+      <c r="F25" s="104" t="s">
+        <v>89</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>39</v>
@@ -3068,7 +3183,7 @@
       <c r="H25" s="21"/>
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
-      <c r="K25" s="119"/>
+      <c r="K25" s="102"/>
       <c r="L25" s="20"/>
       <c r="M25" s="39"/>
       <c r="N25" s="36"/>
@@ -3107,18 +3222,14 @@
     </row>
     <row r="26" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="117"/>
+      <c r="B26" s="125"/>
       <c r="C26" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="112"/>
-      <c r="E26" s="30" t="s">
-        <v>63</v>
-      </c>
+      <c r="D26" s="114"/>
+      <c r="E26" s="30"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="G26" s="33"/>
       <c r="H26" s="39"/>
       <c r="I26" s="36"/>
       <c r="J26" s="36"/>
@@ -3161,16 +3272,16 @@
     </row>
     <row r="27" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="117"/>
+      <c r="B27" s="125"/>
       <c r="C27" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="112"/>
-      <c r="E27" s="30" t="s">
-        <v>64</v>
+      <c r="D27" s="114"/>
+      <c r="E27" s="127" t="s">
+        <v>93</v>
       </c>
-      <c r="F27" s="122" t="s">
-        <v>92</v>
+      <c r="F27" s="105" t="s">
+        <v>90</v>
       </c>
       <c r="G27" s="33" t="s">
         <v>35</v>
@@ -3178,9 +3289,9 @@
       <c r="H27" s="39"/>
       <c r="I27" s="36"/>
       <c r="J27" s="36"/>
-      <c r="K27" s="120"/>
+      <c r="K27" s="103"/>
       <c r="L27" s="38"/>
-      <c r="M27" s="39"/>
+      <c r="M27" s="109"/>
       <c r="N27" s="36"/>
       <c r="O27" s="36"/>
       <c r="P27" s="36"/>
@@ -3217,11 +3328,11 @@
     </row>
     <row r="28" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="117"/>
+      <c r="B28" s="125"/>
       <c r="C28" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="113"/>
+      <c r="D28" s="115"/>
       <c r="E28" s="30"/>
       <c r="F28" s="32"/>
       <c r="G28" s="33"/>
@@ -3267,15 +3378,15 @@
     </row>
     <row r="29" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="117"/>
+      <c r="B29" s="125"/>
       <c r="C29" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="114" t="s">
-        <v>65</v>
+      <c r="D29" s="116" t="s">
+        <v>63</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F29" s="32"/>
       <c r="G29" s="33" t="s">
@@ -3323,13 +3434,13 @@
     </row>
     <row r="30" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="117"/>
+      <c r="B30" s="125"/>
       <c r="C30" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="112"/>
+      <c r="D30" s="114"/>
       <c r="E30" s="65" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F30" s="32"/>
       <c r="G30" s="33" t="s">
@@ -3377,13 +3488,13 @@
     </row>
     <row r="31" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="117"/>
+      <c r="B31" s="125"/>
       <c r="C31" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="112"/>
+      <c r="D31" s="114"/>
       <c r="E31" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F31" s="32"/>
       <c r="G31" s="33" t="s">
@@ -3431,13 +3542,13 @@
     </row>
     <row r="32" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="117"/>
+      <c r="B32" s="125"/>
       <c r="C32" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="112"/>
+      <c r="D32" s="114"/>
       <c r="E32" s="30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F32" s="32"/>
       <c r="G32" s="33" t="s">
@@ -3485,13 +3596,13 @@
     </row>
     <row r="33" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="117"/>
+      <c r="B33" s="125"/>
       <c r="C33" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="113"/>
+      <c r="D33" s="115"/>
       <c r="E33" s="30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F33" s="32"/>
       <c r="G33" s="33" t="s">
@@ -3539,15 +3650,15 @@
     </row>
     <row r="34" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="117"/>
+      <c r="B34" s="125"/>
       <c r="C34" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="114" t="s">
-        <v>71</v>
+      <c r="D34" s="116" t="s">
+        <v>69</v>
       </c>
       <c r="E34" s="66" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F34" s="32"/>
       <c r="G34" s="33" t="s">
@@ -3595,13 +3706,13 @@
     </row>
     <row r="35" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="117"/>
+      <c r="B35" s="125"/>
       <c r="C35" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="112"/>
+      <c r="D35" s="114"/>
       <c r="E35" s="30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F35" s="32"/>
       <c r="G35" s="33" t="s">
@@ -3649,13 +3760,13 @@
     </row>
     <row r="36" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="117"/>
+      <c r="B36" s="125"/>
       <c r="C36" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="112"/>
+      <c r="D36" s="114"/>
       <c r="E36" s="30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F36" s="32"/>
       <c r="G36" s="33" t="s">
@@ -3703,22 +3814,28 @@
     </row>
     <row r="37" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="117"/>
+      <c r="B37" s="125"/>
       <c r="C37" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="114"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="32"/>
+      <c r="D37" s="106" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="128" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" s="105" t="s">
+        <v>90</v>
+      </c>
       <c r="G37" s="33" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="H37" s="39"/>
       <c r="I37" s="36"/>
       <c r="J37" s="36"/>
       <c r="K37" s="37"/>
       <c r="L37" s="38"/>
-      <c r="M37" s="39"/>
+      <c r="M37" s="109"/>
       <c r="N37" s="36"/>
       <c r="O37" s="36"/>
       <c r="P37" s="36"/>
@@ -3755,22 +3872,28 @@
     </row>
     <row r="38" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="117"/>
+      <c r="B38" s="125"/>
       <c r="C38" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="112"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="32"/>
+      <c r="D38" s="129" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="128" t="s">
+        <v>94</v>
+      </c>
+      <c r="F38" s="105" t="s">
+        <v>90</v>
+      </c>
       <c r="G38" s="33" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="H38" s="39"/>
       <c r="I38" s="36"/>
       <c r="J38" s="36"/>
       <c r="K38" s="37"/>
       <c r="L38" s="38"/>
-      <c r="M38" s="39"/>
+      <c r="M38" s="109"/>
       <c r="N38" s="36"/>
       <c r="O38" s="36"/>
       <c r="P38" s="36"/>
@@ -3807,11 +3930,11 @@
     </row>
     <row r="39" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="117"/>
+      <c r="B39" s="125"/>
       <c r="C39" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="112"/>
+      <c r="D39" s="107"/>
       <c r="E39" s="30"/>
       <c r="F39" s="32"/>
       <c r="G39" s="33" t="s">
@@ -3859,11 +3982,11 @@
     </row>
     <row r="40" spans="1:46" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="118"/>
+      <c r="B40" s="126"/>
       <c r="C40" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="113"/>
+      <c r="D40" s="108"/>
       <c r="E40" s="30"/>
       <c r="F40" s="32"/>
       <c r="G40" s="33" t="s">
@@ -3911,17 +4034,17 @@
     </row>
     <row r="41" spans="1:46" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="116" t="s">
+      <c r="B41" s="124" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="E41" s="13" t="s">
         <v>76</v>
-      </c>
-      <c r="D41" s="111" t="s">
-        <v>77</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>78</v>
       </c>
       <c r="F41" s="74"/>
       <c r="G41" s="75" t="s">
@@ -3969,13 +4092,13 @@
     </row>
     <row r="42" spans="1:46" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="117"/>
+      <c r="B42" s="125"/>
       <c r="C42" s="29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
-      <c r="D42" s="112"/>
+      <c r="D42" s="114"/>
       <c r="E42" s="30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F42" s="74"/>
       <c r="G42" s="75" t="s">
@@ -4023,13 +4146,13 @@
     </row>
     <row r="43" spans="1:46" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="117"/>
+      <c r="B43" s="125"/>
       <c r="C43" s="29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
-      <c r="D43" s="113"/>
+      <c r="D43" s="115"/>
       <c r="E43" s="30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F43" s="74"/>
       <c r="G43" s="75" t="s">
@@ -4077,15 +4200,15 @@
     </row>
     <row r="44" spans="1:46" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="117"/>
+      <c r="B44" s="125"/>
       <c r="C44" s="29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
-      <c r="D44" s="114" t="s">
-        <v>81</v>
+      <c r="D44" s="116" t="s">
+        <v>79</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F44" s="74"/>
       <c r="G44" s="75" t="s">
@@ -4133,13 +4256,13 @@
     </row>
     <row r="45" spans="1:46" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="117"/>
+      <c r="B45" s="125"/>
       <c r="C45" s="29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
-      <c r="D45" s="112"/>
+      <c r="D45" s="114"/>
       <c r="E45" s="30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F45" s="74"/>
       <c r="G45" s="75" t="s">
@@ -4187,15 +4310,15 @@
     </row>
     <row r="46" spans="1:46" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="117"/>
+      <c r="B46" s="125"/>
       <c r="C46" s="29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
-      <c r="D46" s="114" t="s">
-        <v>84</v>
+      <c r="D46" s="116" t="s">
+        <v>82</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F46" s="74"/>
       <c r="G46" s="75" t="s">
@@ -4243,13 +4366,13 @@
     </row>
     <row r="47" spans="1:46" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="117"/>
+      <c r="B47" s="125"/>
       <c r="C47" s="29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
-      <c r="D47" s="112"/>
+      <c r="D47" s="114"/>
       <c r="E47" s="30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F47" s="74"/>
       <c r="G47" s="75" t="s">
@@ -4297,13 +4420,13 @@
     </row>
     <row r="48" spans="1:46" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="118"/>
+      <c r="B48" s="126"/>
       <c r="C48" s="29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
-      <c r="D48" s="113"/>
+      <c r="D48" s="115"/>
       <c r="E48" s="30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F48" s="74"/>
       <c r="G48" s="75" t="s">
@@ -4351,14 +4474,14 @@
     </row>
     <row r="49" spans="1:46" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="116" t="s">
-        <v>87</v>
+      <c r="B49" s="124" t="s">
+        <v>85</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D49" s="111" t="s">
-        <v>88</v>
+      <c r="D49" s="113" t="s">
+        <v>86</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="15"/>
@@ -4407,11 +4530,11 @@
     </row>
     <row r="50" spans="1:46" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="117"/>
+      <c r="B50" s="125"/>
       <c r="C50" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D50" s="112"/>
+      <c r="D50" s="114"/>
       <c r="E50" s="30"/>
       <c r="F50" s="32"/>
       <c r="G50" s="16" t="s">
@@ -4459,11 +4582,11 @@
     </row>
     <row r="51" spans="1:46" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="117"/>
+      <c r="B51" s="125"/>
       <c r="C51" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="113"/>
+      <c r="D51" s="115"/>
       <c r="E51" s="30"/>
       <c r="F51" s="32"/>
       <c r="G51" s="16" t="s">
@@ -4511,12 +4634,12 @@
     </row>
     <row r="52" spans="1:46" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="117"/>
+      <c r="B52" s="125"/>
       <c r="C52" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="114" t="s">
-        <v>89</v>
+      <c r="D52" s="116" t="s">
+        <v>87</v>
       </c>
       <c r="E52" s="30"/>
       <c r="F52" s="32"/>
@@ -4565,11 +4688,11 @@
     </row>
     <row r="53" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
-      <c r="B53" s="117"/>
+      <c r="B53" s="125"/>
       <c r="C53" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="112"/>
+      <c r="D53" s="114"/>
       <c r="E53" s="30"/>
       <c r="F53" s="32"/>
       <c r="G53" s="16" t="s">
@@ -4617,11 +4740,11 @@
     </row>
     <row r="54" spans="1:46" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="118"/>
+      <c r="B54" s="126"/>
       <c r="C54" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="D54" s="115"/>
+      <c r="D54" s="123"/>
       <c r="E54" s="51"/>
       <c r="F54" s="53"/>
       <c r="G54" s="54" t="s">
@@ -4669,8 +4792,8 @@
     </row>
     <row r="55" spans="1:46" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="116" t="s">
-        <v>90</v>
+      <c r="B55" s="124" t="s">
+        <v>88</v>
       </c>
       <c r="C55" s="92"/>
       <c r="D55" s="14"/>
@@ -4721,7 +4844,7 @@
     </row>
     <row r="56" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
-      <c r="B56" s="117"/>
+      <c r="B56" s="125"/>
       <c r="C56" s="96"/>
       <c r="D56" s="31"/>
       <c r="E56" s="31"/>
@@ -4771,7 +4894,7 @@
     </row>
     <row r="57" spans="1:46" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="118"/>
+      <c r="B57" s="126"/>
       <c r="C57" s="98"/>
       <c r="D57" s="52"/>
       <c r="E57" s="52"/>
@@ -50949,7 +51072,7 @@
     </row>
   </sheetData>
   <autoFilter ref="F3:G57"/>
-  <mergeCells count="21">
+  <mergeCells count="20">
     <mergeCell ref="D52:D54"/>
     <mergeCell ref="B41:B48"/>
     <mergeCell ref="B49:B54"/>
@@ -50959,7 +51082,6 @@
     <mergeCell ref="D25:D28"/>
     <mergeCell ref="D29:D33"/>
     <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D37:D40"/>
     <mergeCell ref="D46:D48"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="AO1:AS1"/>
